--- a/schema/report.xlsx
+++ b/schema/report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/eedeb602aae1eb40/NTUEE課業&amp;活動/Ric專題/Hamiltonian-cycle-with-SAT/schema/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="112" documentId="11_AD4DA82427541F7ACA7EB875008804CA6BE8DE17" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{E7D7497E-1751-49FD-B091-5106441F12EE}"/>
+  <xr:revisionPtr revIDLastSave="121" documentId="11_AD4DA82427541F7ACA7EB875008804CA6BE8DE17" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{B960EDC8-0AD5-43B7-B965-DBEE296615E9}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,19 +39,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SAT?</t>
+    <t xml:space="preserve">time </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SAT</t>
+    <t>Ham?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>UNSAT</t>
+    <t>Y</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>time</t>
+    <t>N</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1494,7 +1494,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="95" workbookViewId="0">
       <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
@@ -1517,10 +1517,10 @@
         <v>2</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.3">
@@ -1537,7 +1537,7 @@
         <v>5.5999999999999995E-4</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.3">
@@ -1554,7 +1554,7 @@
         <v>6.6799999999999997E-4</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.3">
@@ -1571,7 +1571,7 @@
         <v>8.8099999999999995E-4</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.3">
@@ -1588,7 +1588,7 @@
         <v>8.2799999999999996E-4</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.3">
@@ -1605,7 +1605,7 @@
         <v>7.894E-3</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.3">
@@ -1622,7 +1622,7 @@
         <v>7.9509999999999997E-2</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.3">
@@ -1639,7 +1639,7 @@
         <v>0.156023</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.3">
@@ -1656,7 +1656,7 @@
         <v>0.27428000000000002</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.3">
@@ -1673,7 +1673,7 @@
         <v>0.460559</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.3">
@@ -1690,7 +1690,7 @@
         <v>0.69983499999999998</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.3">
@@ -1707,7 +1707,7 @@
         <v>0.90285300000000002</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.3">
@@ -1724,7 +1724,7 @@
         <v>1.2575000000000001</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.3">
@@ -1741,7 +1741,7 @@
         <v>1.65419</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.3">
@@ -1758,7 +1758,7 @@
         <v>11.956899999999999</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/schema/report.xlsx
+++ b/schema/report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/eedeb602aae1eb40/NTUEE課業&amp;活動/Ric專題/Hamiltonian-cycle-with-SAT/schema/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="121" documentId="11_AD4DA82427541F7ACA7EB875008804CA6BE8DE17" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{B960EDC8-0AD5-43B7-B965-DBEE296615E9}"/>
+  <xr:revisionPtr revIDLastSave="132" documentId="11_AD4DA82427541F7ACA7EB875008804CA6BE8DE17" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{7FAD0A57-DC31-4725-9501-4585EA4ACDFE}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -632,7 +632,494 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.0469816272965886E-2"/>
+          <c:y val="2.5428331875182269E-2"/>
+          <c:w val="0.88386351706036748"/>
+          <c:h val="0.71565616797900267"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$19:$B$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$19:$C$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>7.9509999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.156023</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.27428000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.460559</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.69983499999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.90285300000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.2575000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.65419</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11.956899999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9BEE-4854-8548-00B957B0A333}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="646215176"/>
+        <c:axId val="646214520"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="646215176"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW" sz="2400"/>
+                  <a:t>#</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-TW" altLang="en-US" sz="2400"/>
+                  <a:t> </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW" sz="2400"/>
+                  <a:t>of Nodes</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-TW" altLang="en-US" sz="2400"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-TW"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="646214520"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="646214520"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW" sz="2400"/>
+                  <a:t>Run</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW" sz="2400" baseline="0"/>
+                  <a:t> Time</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-TW" altLang="en-US" sz="2400"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-TW"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="646215176"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-TW"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1188,6 +1675,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -1221,6 +2224,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>4011</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>8021</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>216568</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>184484</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="圖表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54DB3472-8B6B-4D78-990D-5727BFE79774}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1492,10 +2531,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:F16"/>
+  <dimension ref="B2:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="95" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="95" workbookViewId="0">
+      <selection activeCell="Y26" sqref="Y26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -1761,6 +2800,78 @@
         <v>6</v>
       </c>
     </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B19" s="1">
+        <v>30</v>
+      </c>
+      <c r="C19" s="1">
+        <v>7.9509999999999997E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B20" s="1">
+        <v>40</v>
+      </c>
+      <c r="C20" s="1">
+        <v>0.156023</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B21" s="1">
+        <v>50</v>
+      </c>
+      <c r="C21" s="1">
+        <v>0.27428000000000002</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B22" s="1">
+        <v>60</v>
+      </c>
+      <c r="C22" s="1">
+        <v>0.460559</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B23" s="1">
+        <v>70</v>
+      </c>
+      <c r="C23" s="1">
+        <v>0.69983499999999998</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B24" s="1">
+        <v>80</v>
+      </c>
+      <c r="C24" s="1">
+        <v>0.90285300000000002</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B25" s="1">
+        <v>90</v>
+      </c>
+      <c r="C25" s="1">
+        <v>1.2575000000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B26" s="1">
+        <v>100</v>
+      </c>
+      <c r="C26" s="1">
+        <v>1.65419</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B27" s="1">
+        <v>200</v>
+      </c>
+      <c r="C27" s="1">
+        <v>11.956899999999999</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/schema/report.xlsx
+++ b/schema/report.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/eedeb602aae1eb40/NTUEE課業&amp;活動/Ric專題/Hamiltonian-cycle-with-SAT/schema/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/eedeb602aae1eb40/NTUEE課業^0活動/Ric專題/Hamiltonian-cycle-with-SAT/schema/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="132" documentId="11_AD4DA82427541F7ACA7EB875008804CA6BE8DE17" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{7FAD0A57-DC31-4725-9501-4585EA4ACDFE}"/>
+  <xr:revisionPtr revIDLastSave="140" documentId="11_AD4DA82427541F7ACA7EB875008804CA6BE8DE17" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{F0C2E682-C3F4-4156-9EF5-115B187A07D0}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="7">
   <si>
     <t>edge</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -39,19 +39,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">time </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ham?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Y</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>time (s)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Euler graph?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2533,8 +2533,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="95" workbookViewId="0">
-      <selection activeCell="Y26" sqref="Y26"/>
+    <sheetView tabSelected="1" zoomScale="95" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -2542,7 +2542,8 @@
     <col min="1" max="3" width="9" style="1"/>
     <col min="4" max="4" width="15.125" style="1" customWidth="1"/>
     <col min="5" max="5" width="10.125" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="1"/>
+    <col min="6" max="6" width="14.25" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.3">
@@ -2556,10 +2557,10 @@
         <v>2</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.3">
@@ -2576,7 +2577,7 @@
         <v>5.5999999999999995E-4</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.3">
@@ -2593,7 +2594,7 @@
         <v>6.6799999999999997E-4</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.3">
@@ -2610,7 +2611,7 @@
         <v>8.8099999999999995E-4</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.3">
@@ -2627,7 +2628,7 @@
         <v>8.2799999999999996E-4</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.3">
@@ -2644,7 +2645,7 @@
         <v>7.894E-3</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.3">
@@ -2661,7 +2662,7 @@
         <v>7.9509999999999997E-2</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.3">
@@ -2678,7 +2679,7 @@
         <v>0.156023</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.3">
@@ -2695,7 +2696,7 @@
         <v>0.27428000000000002</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.3">
@@ -2712,7 +2713,7 @@
         <v>0.460559</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.3">
@@ -2729,7 +2730,7 @@
         <v>0.69983499999999998</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.3">
@@ -2746,7 +2747,7 @@
         <v>0.90285300000000002</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.3">
@@ -2763,7 +2764,7 @@
         <v>1.2575000000000001</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.3">
@@ -2780,7 +2781,7 @@
         <v>1.65419</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.3">
@@ -2797,7 +2798,15 @@
         <v>11.956899999999999</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B18" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.3">
@@ -2875,7 +2884,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>